--- a/Experiment_Results.xlsx
+++ b/Experiment_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/GitHub/Influenza_H5-Antibody_Predictions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Influenza_H5-Antibody_Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142FCBB4-E463-B94E-A8C3-12C099E9DFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C5429D-2BFE-4A43-A1B3-12ED73ABC93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22940" activeTab="1" xr2:uid="{09342988-5878-3C4E-909A-D556431766FE}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{09342988-5878-3C4E-909A-D556431766FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
   <si>
     <t>antibody_id</t>
   </si>
@@ -151,9 +151,6 @@
     <t>PDB</t>
   </si>
   <si>
-    <t>Actual</t>
-  </si>
-  <si>
     <t>experiment_id</t>
   </si>
   <si>
@@ -205,20 +202,101 @@
     <t>submitted</t>
   </si>
   <si>
-    <t>inputs/antibodies/5jw4_chainsMandN.pdb</t>
-  </si>
-  <si>
     <t>inputs/antigens5jw4_chainB.pdb</t>
   </si>
   <si>
     <t>H5_Vietnam_1204_2004</t>
+  </si>
+  <si>
+    <t>antigen_sequence_source</t>
+  </si>
+  <si>
+    <t>antigen_type</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>26,27,29,29,30,31,53,54,55,74,75,76,1026,1027,1028,1029,1030,1031,1032,1033,1051,1052,1069,1070,1092,1093,1094,1095,1096,1097,1098</t>
+  </si>
+  <si>
+    <t>diridavumab</t>
+  </si>
+  <si>
+    <t>gedivumab</t>
+  </si>
+  <si>
+    <t>navivumab</t>
+  </si>
+  <si>
+    <t>antibody_type</t>
+  </si>
+  <si>
+    <t>therapeutic</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/3GBM</t>
+  </si>
+  <si>
+    <t>3GBM (Chains H and L)</t>
+  </si>
+  <si>
+    <t>4UBD (Chains C and D)</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/4KVN</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/4UBD</t>
+  </si>
+  <si>
+    <t>inputs/antibodies/MEDI8852/5jw4_chainsMandN.pdb</t>
+  </si>
+  <si>
+    <t>inputs/antibodies/diridavumab/3gbm_chainsHandL.pdb</t>
+  </si>
+  <si>
+    <t>4KVN (Chains H and L)</t>
+  </si>
+  <si>
+    <t>inputs/antibodies/gedivumab/4kvn_chainsHandL.pdb</t>
+  </si>
+  <si>
+    <t>inputs/antibodies/navivumab/4ubd_chainsCandD_renumberedDplus1000.pdb</t>
+  </si>
+  <si>
+    <t>inputs/antibodies/navivumab/4ubd_chainsCandD.pdb</t>
+  </si>
+  <si>
+    <t>EVQLVESGAEVKKPGSSVKVSCKASGGPFRSYAISWVRQAPGQGPEWMGGIIPIFGTTKYAPKFQGRVTITADDFAGTVYMELSSLRSEDTAMYYCAKHMGYQVRETMDVWGKGTTVTVSSASTKGPSVFPLAPSSKSTSGGTAALGCLVKDYFPEPVTVSWNSGALTSGVHTFPAVLQSSGLYSLSSVVTVPSSSLGTQTYICNVNHKPSNTKVDKRVEPKSCDK</t>
+  </si>
+  <si>
+    <t>QSVLTQPPSVSAAPGQKVTISCSGSSSNIGNDYVSWYQQLPGTAPKLLIYDNNKRPSGIPDRFSGSKSGTSATLGITGLQTGDEANYYCATWDRRPTAYVVFGGGTKLTVLGAAAGQPKAAPSVTLFPPSSEELQANKATLVCLISDFYPGAVTVAWKADSSPVKAGVETTTPSKQSNNKYAASSYLSLTPEQWKSHRSYSCQVTHEGSTVEKTVAPTECS</t>
+  </si>
+  <si>
+    <t>VQLVESGGGVVQPGKSPRLSCAASGPTFSSYAVHWVRQAPGKGLEWVTLISYDGANQYYADSVKGRFTISRDNSKNTVYLQMNSLRPEDTAVYYCAVPGPVFGIFPPWSYFDNWGQGILVTVSSASTKGPSVFPLAPSSKSTSGGTAALGCLVKDYFPEPVTVSWNSGALTSGVHTFPAVLQSSGLYSLSSVVTVPSSSLGTQTYICNVNHKPSNTKVDKKVEPKSC</t>
+  </si>
+  <si>
+    <t>IVLTQSPATLSVSPGERATLSCRASQVISHNLAWYQQKPGQAPRLLIYGASTRASGIPARFSGSGSGTDYTLTITSLQPEDFAVYYCQHYSNWPPRLTFGGGTKVEIKRTVAAPSVFIFPPSDEQLKSGTASVVCLLNNFYPREAKVQWKVDNALQSGNSQESVTEQDSKDSTYSLSSTLTLSKADYEKHKVYACEVTHQGLSSPVTKSFNRGEC</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGASVKVSCKTSGYSFSTYGVSWVRQAPGQGPEWVGWISAYTGITDYAQKFQGRVTLTTDATTATAFLDLRSLRPDDTATYFCARDKVQGRVEVGSGGRHDYWGQGTLVIVSSASTKGPSVFPLAPSSKSTSGGTAALGCLVKDYFPEPVTVSWNSGALTSGVHTFPAVLQSSGLYSLSSVVTVPSSSLGTQTYICNVNHKPSNTKVDKKVEP</t>
+  </si>
+  <si>
+    <t>EVVLTQSPGTLALPPGERATLSCRASHRVGSTYIAWYQQKSGQAPRRLIYGASNRATDIPDRFSGSGSGTDFTLTIRRLEPEDSAVYYCQQFSVSPWTFGQGTRVEIKRTVAAPSVFIFPPSDEQLKSGTASVVCLLNNFYPREAKVQWKVDNALQSGNSQESVTEQDSKDSTYSLSSTLTLSKADYEKHKVYACEVTHQGLSSPVTKSFNRGEC</t>
+  </si>
+  <si>
+    <t>26,27,29,29,30,31,53,54,55,74,75,76</t>
+  </si>
+  <si>
+    <t>`1029,1030,1031,1032,1033,1051,1052,1069,1070,1092,1093,1094,1095,1096,1097,1098</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,6 +307,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -276,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,14 +369,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,114 +732,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233BCF53-D817-C044-893D-E154645C42FD}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
     <col min="5" max="27" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="207" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="210" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="str">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="str">
         <f>_xlfn.CONCAT(B2,"__",C2)</f>
         <v>MEDI8852__H5_Vietnam_1204_2004</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="5" t="b">
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="E2" s="2"/>
@@ -770,30 +873,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF654A89-E9FD-6442-9FC8-DC69E573C848}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.1640625" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-    <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="48.625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="49.25" style="11" customWidth="1"/>
+    <col min="10" max="10" width="26.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,71 +906,191 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="3" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="2"/>
+      <c r="C4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -874,73 +1099,80 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E1B7B7-F586-9B47-9CA4-E262C3DEF51A}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="48" customWidth="1"/>
-    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="48" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
